--- a/example-files/LAB_use-case/20171222-b-sample_MOSS_with-Sub_ID.xlsx
+++ b/example-files/LAB_use-case/20171222-b-sample_MOSS_with-Sub_ID.xlsx
@@ -766,20 +766,20 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="1:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
